--- a/tree/sys/template.xlsx
+++ b/tree/sys/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="XRD" sheetId="14" r:id="rId15"/>
     <sheet name="手标本" sheetId="15" r:id="rId16"/>
     <sheet name="光、薄片" sheetId="16" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
+    <sheet name="ExtraSheet" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="分析测试方法">词汇集!$A$2:$A$10</definedName>
@@ -1129,7 +1129,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1961,8 +1960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="87.90625" collapsed="true"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="87.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2133,10 +2132,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="35" width="13.0" collapsed="true"/>
-    <col min="8" max="8" style="35" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="35" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" style="35" collapsed="1"/>
+    <col min="9" max="9" width="13" style="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2304,10 +2303,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="37" width="13.0" collapsed="true"/>
-    <col min="8" max="8" style="37" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="37" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" style="37" collapsed="1"/>
+    <col min="9" max="9" width="13" style="37" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2429,7 +2428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2606,8 +2605,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2743,7 +2742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2884,7 +2883,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2993,7 +2992,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3090,7 +3089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3208,7 +3207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
@@ -3228,10 +3229,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="11" width="42.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="17" width="1.08984375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="11" width="29.6328125" collapsed="true"/>
+    <col min="1" max="1" width="23" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.08984375" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="1.08984375" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6328125" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3360,19 +3361,19 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="37" width="7.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.08984375" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" customHeight="1">
@@ -3489,7 +3490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1">
@@ -3624,10 +3625,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="11.6328125" collapsed="true"/>
-    <col min="7" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="11.6328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -3915,14 +3916,14 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -4271,7 +4272,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F194">
       <formula1>检测仪器</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="规范化描述" prompt="请参照词汇集" sqref="E1:E1048576">
@@ -4295,10 +4296,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -4527,9 +4528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.6328125" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="32" width="26.6328125" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="26.6328125" style="32" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4681,10 +4682,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="33" width="13.0" collapsed="true"/>
-    <col min="8" max="8" style="33" width="9.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="33" width="13.0" collapsed="true"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" style="33" collapsed="1"/>
+    <col min="9" max="9" width="13" style="33" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">

--- a/tree/sys/template.xlsx
+++ b/tree/sys/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -3360,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -4520,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4638,9 +4638,6 @@
       <c r="L5" s="29" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4657,11 +4654,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I207">
-      <formula1>检测仪器</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="规范化描述" prompt="请参照词汇集" sqref="E1:E4 E6:E1048576">
       <formula1>分析测试方法</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I189">
+      <formula1>检测仪器</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
